--- a/Caspian data_15.09.2022_SA.xlsx
+++ b/Caspian data_15.09.2022_SA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_Kasp.Makarova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_Kasp.Makarova\kasp_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE26E2C9-C764-44DC-8E54-E62560A3B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E9FCA0-E286-44DF-85C7-696444CE7FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EBB4CEE-5108-4D46-B5D1-E2A8D826402C}"/>
   </bookViews>
@@ -4721,7 +4721,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4788,6 +4788,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4802,7 +4814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4867,9 +4879,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4882,6 +4891,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5354,10 +5365,10 @@
   <dimension ref="A1:CO115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BV56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="L1:P1"/>
+      <selection pane="bottomRight" activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5399,19 +5410,19 @@
       <c r="K1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="39" t="s">
         <v>487</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="39" t="s">
         <v>488</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="39" t="s">
         <v>489</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="39" t="s">
         <v>490</v>
       </c>
       <c r="Q1" s="6" t="s">
@@ -5420,229 +5431,229 @@
       <c r="R1" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="28" t="s">
         <v>960</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="28" t="s">
         <v>961</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="28" t="s">
         <v>962</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="28" t="s">
         <v>963</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="28" t="s">
         <v>964</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="X1" s="29" t="s">
         <v>965</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="29" t="s">
         <v>966</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="29" t="s">
         <v>967</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AA1" s="29" t="s">
         <v>968</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="29" t="s">
         <v>969</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AC1" s="30" t="s">
         <v>970</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="30" t="s">
         <v>971</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="30" t="s">
         <v>972</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AF1" s="30" t="s">
         <v>973</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AG1" s="30" t="s">
         <v>974</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AH1" s="31" t="s">
         <v>975</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AI1" s="31" t="s">
         <v>976</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>977</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AK1" s="31" t="s">
         <v>978</v>
       </c>
-      <c r="AL1" s="34" t="s">
+      <c r="AL1" s="31" t="s">
         <v>979</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AM1" s="30" t="s">
         <v>980</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AN1" s="30" t="s">
         <v>981</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AO1" s="30" t="s">
         <v>982</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AP1" s="30" t="s">
         <v>983</v>
       </c>
-      <c r="AQ1" s="33" t="s">
+      <c r="AQ1" s="30" t="s">
         <v>984</v>
       </c>
-      <c r="AR1" s="31" t="s">
+      <c r="AR1" s="28" t="s">
         <v>985</v>
       </c>
-      <c r="AS1" s="31" t="s">
+      <c r="AS1" s="28" t="s">
         <v>986</v>
       </c>
-      <c r="AT1" s="31" t="s">
+      <c r="AT1" s="28" t="s">
         <v>987</v>
       </c>
-      <c r="AU1" s="31" t="s">
+      <c r="AU1" s="28" t="s">
         <v>988</v>
       </c>
-      <c r="AV1" s="31" t="s">
+      <c r="AV1" s="28" t="s">
         <v>989</v>
       </c>
-      <c r="AW1" s="35" t="s">
+      <c r="AW1" s="32" t="s">
         <v>990</v>
       </c>
-      <c r="AX1" s="35" t="s">
+      <c r="AX1" s="32" t="s">
         <v>991</v>
       </c>
-      <c r="AY1" s="35" t="s">
+      <c r="AY1" s="32" t="s">
         <v>992</v>
       </c>
-      <c r="AZ1" s="35" t="s">
+      <c r="AZ1" s="32" t="s">
         <v>993</v>
       </c>
-      <c r="BA1" s="35" t="s">
+      <c r="BA1" s="32" t="s">
         <v>994</v>
       </c>
-      <c r="BB1" s="36" t="s">
+      <c r="BB1" s="33" t="s">
         <v>995</v>
       </c>
-      <c r="BC1" s="36" t="s">
+      <c r="BC1" s="33" t="s">
         <v>996</v>
       </c>
-      <c r="BD1" s="36" t="s">
+      <c r="BD1" s="33" t="s">
         <v>997</v>
       </c>
-      <c r="BE1" s="36" t="s">
+      <c r="BE1" s="33" t="s">
         <v>998</v>
       </c>
-      <c r="BF1" s="36" t="s">
+      <c r="BF1" s="33" t="s">
         <v>999</v>
       </c>
-      <c r="BG1" s="33" t="s">
+      <c r="BG1" s="30" t="s">
         <v>1000</v>
       </c>
-      <c r="BH1" s="33" t="s">
+      <c r="BH1" s="30" t="s">
         <v>1001</v>
       </c>
-      <c r="BI1" s="33" t="s">
+      <c r="BI1" s="30" t="s">
         <v>1002</v>
       </c>
-      <c r="BJ1" s="33" t="s">
+      <c r="BJ1" s="30" t="s">
         <v>1003</v>
       </c>
-      <c r="BK1" s="33" t="s">
+      <c r="BK1" s="30" t="s">
         <v>1004</v>
       </c>
-      <c r="BL1" s="37" t="s">
+      <c r="BL1" s="34" t="s">
         <v>1005</v>
       </c>
-      <c r="BM1" s="37" t="s">
+      <c r="BM1" s="34" t="s">
         <v>1006</v>
       </c>
-      <c r="BN1" s="37" t="s">
+      <c r="BN1" s="34" t="s">
         <v>1007</v>
       </c>
-      <c r="BO1" s="37" t="s">
+      <c r="BO1" s="34" t="s">
         <v>1008</v>
       </c>
-      <c r="BP1" s="37" t="s">
+      <c r="BP1" s="34" t="s">
         <v>1009</v>
       </c>
-      <c r="BQ1" s="31" t="s">
+      <c r="BQ1" s="28" t="s">
         <v>1010</v>
       </c>
-      <c r="BR1" s="31" t="s">
+      <c r="BR1" s="28" t="s">
         <v>1011</v>
       </c>
-      <c r="BS1" s="31" t="s">
+      <c r="BS1" s="28" t="s">
         <v>1012</v>
       </c>
-      <c r="BT1" s="31" t="s">
+      <c r="BT1" s="28" t="s">
         <v>1013</v>
       </c>
-      <c r="BU1" s="31" t="s">
+      <c r="BU1" s="28" t="s">
         <v>1014</v>
       </c>
-      <c r="BV1" s="38" t="s">
+      <c r="BV1" s="35" t="s">
         <v>1015</v>
       </c>
-      <c r="BW1" s="38" t="s">
+      <c r="BW1" s="35" t="s">
         <v>1016</v>
       </c>
-      <c r="BX1" s="38" t="s">
+      <c r="BX1" s="35" t="s">
         <v>1017</v>
       </c>
-      <c r="BY1" s="38" t="s">
+      <c r="BY1" s="35" t="s">
         <v>1018</v>
       </c>
-      <c r="BZ1" s="38" t="s">
+      <c r="BZ1" s="35" t="s">
         <v>1019</v>
       </c>
-      <c r="CA1" s="39" t="s">
+      <c r="CA1" s="36" t="s">
         <v>1020</v>
       </c>
-      <c r="CB1" s="39" t="s">
+      <c r="CB1" s="36" t="s">
         <v>1021</v>
       </c>
-      <c r="CC1" s="39" t="s">
+      <c r="CC1" s="36" t="s">
         <v>1022</v>
       </c>
-      <c r="CD1" s="39" t="s">
+      <c r="CD1" s="36" t="s">
         <v>1023</v>
       </c>
-      <c r="CE1" s="39" t="s">
+      <c r="CE1" s="36" t="s">
         <v>1024</v>
       </c>
-      <c r="CF1" s="40" t="s">
+      <c r="CF1" s="37" t="s">
         <v>1025</v>
       </c>
-      <c r="CG1" s="40" t="s">
+      <c r="CG1" s="37" t="s">
         <v>1026</v>
       </c>
-      <c r="CH1" s="40" t="s">
+      <c r="CH1" s="37" t="s">
         <v>1027</v>
       </c>
-      <c r="CI1" s="40" t="s">
+      <c r="CI1" s="37" t="s">
         <v>1028</v>
       </c>
-      <c r="CJ1" s="40" t="s">
+      <c r="CJ1" s="37" t="s">
         <v>1029</v>
       </c>
-      <c r="CK1" s="41" t="s">
+      <c r="CK1" s="38" t="s">
         <v>1030</v>
       </c>
-      <c r="CL1" s="41" t="s">
+      <c r="CL1" s="38" t="s">
         <v>1031</v>
       </c>
-      <c r="CM1" s="41" t="s">
+      <c r="CM1" s="38" t="s">
         <v>1032</v>
       </c>
-      <c r="CN1" s="41" t="s">
+      <c r="CN1" s="38" t="s">
         <v>1033</v>
       </c>
-      <c r="CO1" s="41" t="s">
+      <c r="CO1" s="38" t="s">
         <v>1034</v>
       </c>
     </row>
@@ -5666,7 +5677,7 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="40" t="s">
         <v>767</v>
       </c>
       <c r="B5" s="2">
@@ -5947,7 +5958,7 @@
       </c>
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="41" t="s">
         <v>403</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6228,7 +6239,7 @@
       </c>
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="41" t="s">
         <v>404</v>
       </c>
       <c r="B7" s="2">
@@ -6509,7 +6520,7 @@
       </c>
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="41" t="s">
         <v>405</v>
       </c>
       <c r="B8" s="2">
@@ -6790,7 +6801,7 @@
       </c>
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="41" t="s">
         <v>406</v>
       </c>
       <c r="B9" s="2">
@@ -7071,7 +7082,7 @@
       </c>
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="41" t="s">
         <v>407</v>
       </c>
       <c r="B10" s="2">
@@ -7352,7 +7363,7 @@
       </c>
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="41" t="s">
         <v>408</v>
       </c>
       <c r="B11" s="2">
@@ -7633,7 +7644,7 @@
       </c>
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="41" t="s">
         <v>409</v>
       </c>
       <c r="B12" s="2">
@@ -7914,7 +7925,7 @@
       </c>
     </row>
     <row r="13" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="41" t="s">
         <v>410</v>
       </c>
       <c r="B13" s="2">
@@ -8195,7 +8206,7 @@
       </c>
     </row>
     <row r="14" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="41" t="s">
         <v>411</v>
       </c>
       <c r="B14" s="2">
@@ -8476,7 +8487,7 @@
       </c>
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="41" t="s">
         <v>412</v>
       </c>
       <c r="B15" s="2">
@@ -8757,7 +8768,7 @@
       </c>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="41" t="s">
         <v>656</v>
       </c>
       <c r="B16" s="2">
@@ -9038,7 +9049,7 @@
       </c>
     </row>
     <row r="17" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="41" t="s">
         <v>413</v>
       </c>
       <c r="B17" s="2">
@@ -9319,7 +9330,7 @@
       </c>
     </row>
     <row r="18" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="41" t="s">
         <v>414</v>
       </c>
       <c r="B18" s="2">
@@ -9600,7 +9611,7 @@
       </c>
     </row>
     <row r="19" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="41" t="s">
         <v>838</v>
       </c>
       <c r="B19" s="2">
@@ -9881,7 +9892,7 @@
       </c>
     </row>
     <row r="20" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="41" t="s">
         <v>657</v>
       </c>
       <c r="B20" s="2">
@@ -10162,7 +10173,7 @@
       </c>
     </row>
     <row r="21" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="41" t="s">
         <v>415</v>
       </c>
       <c r="B21" s="2">
@@ -10443,7 +10454,7 @@
       </c>
     </row>
     <row r="22" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="41" t="s">
         <v>416</v>
       </c>
       <c r="B22" s="2">
@@ -10724,7 +10735,7 @@
       </c>
     </row>
     <row r="23" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="41" t="s">
         <v>417</v>
       </c>
       <c r="B23" s="2">
@@ -11005,7 +11016,7 @@
       </c>
     </row>
     <row r="24" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="41" t="s">
         <v>402</v>
       </c>
       <c r="B24" s="2">
@@ -11286,7 +11297,7 @@
       </c>
     </row>
     <row r="25" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="41" t="s">
         <v>418</v>
       </c>
       <c r="B25" s="2">
@@ -11567,7 +11578,7 @@
       </c>
     </row>
     <row r="26" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="41" t="s">
         <v>419</v>
       </c>
       <c r="B26" s="2">
@@ -11848,7 +11859,7 @@
       </c>
     </row>
     <row r="27" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="41" t="s">
         <v>420</v>
       </c>
       <c r="B27" s="2">
@@ -12129,7 +12140,7 @@
       </c>
     </row>
     <row r="28" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="41" t="s">
         <v>421</v>
       </c>
       <c r="B28" s="2">
@@ -12410,7 +12421,7 @@
       </c>
     </row>
     <row r="29" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="41" t="s">
         <v>658</v>
       </c>
       <c r="B29" s="2">
@@ -12691,7 +12702,7 @@
       </c>
     </row>
     <row r="30" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="41" t="s">
         <v>422</v>
       </c>
       <c r="B30" s="2">
@@ -12972,7 +12983,7 @@
       </c>
     </row>
     <row r="31" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="41" t="s">
         <v>423</v>
       </c>
       <c r="B31" s="2">
@@ -13253,7 +13264,7 @@
       </c>
     </row>
     <row r="32" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="41" t="s">
         <v>424</v>
       </c>
       <c r="B32" s="2">
@@ -13534,7 +13545,7 @@
       </c>
     </row>
     <row r="33" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="41" t="s">
         <v>425</v>
       </c>
       <c r="B33" s="2">
@@ -13815,7 +13826,7 @@
       </c>
     </row>
     <row r="34" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="41" t="s">
         <v>426</v>
       </c>
       <c r="B34" s="2">
@@ -14096,7 +14107,7 @@
       </c>
     </row>
     <row r="35" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="41" t="s">
         <v>427</v>
       </c>
       <c r="B35" s="2">
@@ -14377,7 +14388,7 @@
       </c>
     </row>
     <row r="36" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="41" t="s">
         <v>428</v>
       </c>
       <c r="B36" s="2">
@@ -14658,7 +14669,7 @@
       </c>
     </row>
     <row r="37" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="41" t="s">
         <v>429</v>
       </c>
       <c r="B37" s="2">
@@ -14939,7 +14950,7 @@
       </c>
     </row>
     <row r="38" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="41" t="s">
         <v>430</v>
       </c>
       <c r="B38" s="2">
@@ -15220,7 +15231,7 @@
       </c>
     </row>
     <row r="39" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="41" t="s">
         <v>431</v>
       </c>
       <c r="B39" s="2">
@@ -15501,7 +15512,7 @@
       </c>
     </row>
     <row r="40" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="41" t="s">
         <v>809</v>
       </c>
       <c r="B40" s="2">
@@ -15782,7 +15793,7 @@
       </c>
     </row>
     <row r="41" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="41" t="s">
         <v>810</v>
       </c>
       <c r="B41" s="2">
@@ -16063,7 +16074,7 @@
       </c>
     </row>
     <row r="42" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="41" t="s">
         <v>811</v>
       </c>
       <c r="B42" s="2">
@@ -16344,7 +16355,7 @@
       </c>
     </row>
     <row r="43" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="41" t="s">
         <v>814</v>
       </c>
       <c r="B43" s="2">
@@ -16625,7 +16636,7 @@
       </c>
     </row>
     <row r="44" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="41" t="s">
         <v>815</v>
       </c>
       <c r="B44" s="2">
@@ -16906,7 +16917,7 @@
       </c>
     </row>
     <row r="45" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="41" t="s">
         <v>822</v>
       </c>
       <c r="B45" s="2">
@@ -17187,7 +17198,7 @@
       </c>
     </row>
     <row r="46" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="41" t="s">
         <v>823</v>
       </c>
       <c r="B46" s="2">
@@ -17468,7 +17479,7 @@
       </c>
     </row>
     <row r="47" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="41" t="s">
         <v>831</v>
       </c>
       <c r="B47" s="2">
@@ -17749,7 +17760,7 @@
       </c>
     </row>
     <row r="48" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="41" t="s">
         <v>832</v>
       </c>
       <c r="B48" s="2">
@@ -18030,7 +18041,7 @@
       </c>
     </row>
     <row r="49" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="41" t="s">
         <v>833</v>
       </c>
       <c r="B49" s="2">
@@ -18311,7 +18322,7 @@
       </c>
     </row>
     <row r="50" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="41" t="s">
         <v>834</v>
       </c>
       <c r="B50" s="2">
@@ -18592,7 +18603,7 @@
       </c>
     </row>
     <row r="51" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="41" t="s">
         <v>906</v>
       </c>
       <c r="B51" s="2">
@@ -18873,7 +18884,7 @@
       </c>
     </row>
     <row r="52" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="41" t="s">
         <v>835</v>
       </c>
       <c r="B52" s="2">
@@ -19154,7 +19165,7 @@
       </c>
     </row>
     <row r="53" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="41" t="s">
         <v>836</v>
       </c>
       <c r="B53" s="2">
@@ -19435,7 +19446,7 @@
       </c>
     </row>
     <row r="54" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="41" t="s">
         <v>837</v>
       </c>
       <c r="B54" s="2">
@@ -19716,7 +19727,7 @@
       </c>
     </row>
     <row r="55" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="41" t="s">
         <v>839</v>
       </c>
       <c r="B55" s="2">
@@ -19997,7 +20008,7 @@
       </c>
     </row>
     <row r="56" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="41" t="s">
         <v>840</v>
       </c>
       <c r="B56" s="2">
@@ -20276,7 +20287,7 @@
       </c>
     </row>
     <row r="57" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="41" t="s">
         <v>841</v>
       </c>
       <c r="B57" s="2">
@@ -20557,7 +20568,7 @@
       </c>
     </row>
     <row r="58" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="41" t="s">
         <v>844</v>
       </c>
       <c r="B58" s="2">
@@ -20838,7 +20849,7 @@
       </c>
     </row>
     <row r="59" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="41" t="s">
         <v>845</v>
       </c>
       <c r="B59" s="2">
@@ -21119,7 +21130,7 @@
       </c>
     </row>
     <row r="60" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="41" t="s">
         <v>848</v>
       </c>
       <c r="B60" s="2">
@@ -21400,7 +21411,7 @@
       </c>
     </row>
     <row r="61" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="41" t="s">
         <v>849</v>
       </c>
       <c r="B61" s="2">
@@ -21681,7 +21692,7 @@
       </c>
     </row>
     <row r="62" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="41" t="s">
         <v>850</v>
       </c>
       <c r="B62" s="2">
@@ -21962,7 +21973,7 @@
       </c>
     </row>
     <row r="63" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="41" t="s">
         <v>909</v>
       </c>
       <c r="B63" s="2">
@@ -22243,7 +22254,7 @@
       </c>
     </row>
     <row r="64" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="41" t="s">
         <v>911</v>
       </c>
       <c r="B64" s="2">
@@ -22524,7 +22535,7 @@
       </c>
     </row>
     <row r="65" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="41" t="s">
         <v>919</v>
       </c>
       <c r="B65" s="2">
@@ -22805,7 +22816,7 @@
       </c>
     </row>
     <row r="66" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="41" t="s">
         <v>924</v>
       </c>
       <c r="B66" s="2">
@@ -23086,7 +23097,7 @@
       </c>
     </row>
     <row r="67" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="41" t="s">
         <v>932</v>
       </c>
       <c r="B67" s="2">
@@ -23367,7 +23378,7 @@
       </c>
     </row>
     <row r="68" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="41" t="s">
         <v>933</v>
       </c>
       <c r="B68" s="2">
@@ -23648,7 +23659,7 @@
       </c>
     </row>
     <row r="69" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="41" t="s">
         <v>935</v>
       </c>
       <c r="B69" s="2">
@@ -23929,7 +23940,7 @@
       </c>
     </row>
     <row r="70" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="41" t="s">
         <v>938</v>
       </c>
       <c r="B70" s="2">
@@ -24210,7 +24221,7 @@
       </c>
     </row>
     <row r="71" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="41" t="s">
         <v>942</v>
       </c>
       <c r="B71" s="2">
@@ -24491,7 +24502,7 @@
       </c>
     </row>
     <row r="72" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="41" t="s">
         <v>943</v>
       </c>
       <c r="B72" s="2">
@@ -40517,10 +40528,10 @@
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H60" sqref="H60"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Caspian data_15.09.2022_SA.xlsx
+++ b/Caspian data_15.09.2022_SA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_Kasp.Makarova\kasp_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E9FCA0-E286-44DF-85C7-696444CE7FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E5D8D1-EDAF-4268-B959-65C297D00045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EBB4CEE-5108-4D46-B5D1-E2A8D826402C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6EBB4CEE-5108-4D46-B5D1-E2A8D826402C}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="1036">
   <si>
     <t>Substrate</t>
   </si>
@@ -3881,9 +3881,6 @@
     <t>non det,</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>HkSdSw1</t>
   </si>
   <si>
@@ -4612,6 +4609,12 @@
   </si>
   <si>
     <t>SmRsFd5</t>
+  </si>
+  <si>
+    <t>48.590147</t>
+  </si>
+  <si>
+    <t>41.845285</t>
   </si>
 </sst>
 </file>
@@ -4721,7 +4724,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4800,6 +4803,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4814,7 +4823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4893,6 +4902,9 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5364,8 +5376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BV56" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AD56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A72" sqref="A72:XFD72"/>
@@ -5429,249 +5441,249 @@
         <v>475</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="S1" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="T1" s="28" t="s">
         <v>960</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>961</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>962</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>963</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="29" t="s">
         <v>964</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="Y1" s="29" t="s">
         <v>965</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Z1" s="29" t="s">
         <v>966</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="AA1" s="29" t="s">
         <v>967</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AB1" s="29" t="s">
         <v>968</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AC1" s="30" t="s">
         <v>969</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AD1" s="30" t="s">
         <v>970</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AE1" s="30" t="s">
         <v>971</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AF1" s="30" t="s">
         <v>972</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AG1" s="30" t="s">
         <v>973</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AH1" s="31" t="s">
         <v>974</v>
       </c>
-      <c r="AH1" s="31" t="s">
+      <c r="AI1" s="31" t="s">
         <v>975</v>
       </c>
-      <c r="AI1" s="31" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>976</v>
       </c>
-      <c r="AJ1" s="31" t="s">
+      <c r="AK1" s="31" t="s">
         <v>977</v>
       </c>
-      <c r="AK1" s="31" t="s">
+      <c r="AL1" s="31" t="s">
         <v>978</v>
       </c>
-      <c r="AL1" s="31" t="s">
+      <c r="AM1" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AN1" s="30" t="s">
         <v>980</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AO1" s="30" t="s">
         <v>981</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AP1" s="30" t="s">
         <v>982</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AQ1" s="30" t="s">
         <v>983</v>
       </c>
-      <c r="AQ1" s="30" t="s">
+      <c r="AR1" s="28" t="s">
         <v>984</v>
       </c>
-      <c r="AR1" s="28" t="s">
+      <c r="AS1" s="28" t="s">
         <v>985</v>
       </c>
-      <c r="AS1" s="28" t="s">
+      <c r="AT1" s="28" t="s">
         <v>986</v>
       </c>
-      <c r="AT1" s="28" t="s">
+      <c r="AU1" s="28" t="s">
         <v>987</v>
       </c>
-      <c r="AU1" s="28" t="s">
+      <c r="AV1" s="28" t="s">
         <v>988</v>
       </c>
-      <c r="AV1" s="28" t="s">
+      <c r="AW1" s="32" t="s">
         <v>989</v>
       </c>
-      <c r="AW1" s="32" t="s">
+      <c r="AX1" s="32" t="s">
         <v>990</v>
       </c>
-      <c r="AX1" s="32" t="s">
+      <c r="AY1" s="32" t="s">
         <v>991</v>
       </c>
-      <c r="AY1" s="32" t="s">
+      <c r="AZ1" s="32" t="s">
         <v>992</v>
       </c>
-      <c r="AZ1" s="32" t="s">
+      <c r="BA1" s="32" t="s">
         <v>993</v>
       </c>
-      <c r="BA1" s="32" t="s">
+      <c r="BB1" s="33" t="s">
         <v>994</v>
       </c>
-      <c r="BB1" s="33" t="s">
+      <c r="BC1" s="33" t="s">
         <v>995</v>
       </c>
-      <c r="BC1" s="33" t="s">
+      <c r="BD1" s="33" t="s">
         <v>996</v>
       </c>
-      <c r="BD1" s="33" t="s">
+      <c r="BE1" s="33" t="s">
         <v>997</v>
       </c>
-      <c r="BE1" s="33" t="s">
+      <c r="BF1" s="33" t="s">
         <v>998</v>
       </c>
-      <c r="BF1" s="33" t="s">
+      <c r="BG1" s="30" t="s">
         <v>999</v>
       </c>
-      <c r="BG1" s="30" t="s">
+      <c r="BH1" s="30" t="s">
         <v>1000</v>
       </c>
-      <c r="BH1" s="30" t="s">
+      <c r="BI1" s="30" t="s">
         <v>1001</v>
       </c>
-      <c r="BI1" s="30" t="s">
+      <c r="BJ1" s="30" t="s">
         <v>1002</v>
       </c>
-      <c r="BJ1" s="30" t="s">
+      <c r="BK1" s="30" t="s">
         <v>1003</v>
       </c>
-      <c r="BK1" s="30" t="s">
+      <c r="BL1" s="34" t="s">
         <v>1004</v>
       </c>
-      <c r="BL1" s="34" t="s">
+      <c r="BM1" s="34" t="s">
         <v>1005</v>
       </c>
-      <c r="BM1" s="34" t="s">
+      <c r="BN1" s="34" t="s">
         <v>1006</v>
       </c>
-      <c r="BN1" s="34" t="s">
+      <c r="BO1" s="34" t="s">
         <v>1007</v>
       </c>
-      <c r="BO1" s="34" t="s">
+      <c r="BP1" s="34" t="s">
         <v>1008</v>
       </c>
-      <c r="BP1" s="34" t="s">
+      <c r="BQ1" s="28" t="s">
         <v>1009</v>
       </c>
-      <c r="BQ1" s="28" t="s">
+      <c r="BR1" s="28" t="s">
         <v>1010</v>
       </c>
-      <c r="BR1" s="28" t="s">
+      <c r="BS1" s="28" t="s">
         <v>1011</v>
       </c>
-      <c r="BS1" s="28" t="s">
+      <c r="BT1" s="28" t="s">
         <v>1012</v>
       </c>
-      <c r="BT1" s="28" t="s">
+      <c r="BU1" s="28" t="s">
         <v>1013</v>
       </c>
-      <c r="BU1" s="28" t="s">
+      <c r="BV1" s="35" t="s">
         <v>1014</v>
       </c>
-      <c r="BV1" s="35" t="s">
+      <c r="BW1" s="35" t="s">
         <v>1015</v>
       </c>
-      <c r="BW1" s="35" t="s">
+      <c r="BX1" s="35" t="s">
         <v>1016</v>
       </c>
-      <c r="BX1" s="35" t="s">
+      <c r="BY1" s="35" t="s">
         <v>1017</v>
       </c>
-      <c r="BY1" s="35" t="s">
+      <c r="BZ1" s="35" t="s">
         <v>1018</v>
       </c>
-      <c r="BZ1" s="35" t="s">
+      <c r="CA1" s="36" t="s">
         <v>1019</v>
       </c>
-      <c r="CA1" s="36" t="s">
+      <c r="CB1" s="36" t="s">
         <v>1020</v>
       </c>
-      <c r="CB1" s="36" t="s">
+      <c r="CC1" s="36" t="s">
         <v>1021</v>
       </c>
-      <c r="CC1" s="36" t="s">
+      <c r="CD1" s="36" t="s">
         <v>1022</v>
       </c>
-      <c r="CD1" s="36" t="s">
+      <c r="CE1" s="36" t="s">
         <v>1023</v>
       </c>
-      <c r="CE1" s="36" t="s">
+      <c r="CF1" s="37" t="s">
         <v>1024</v>
       </c>
-      <c r="CF1" s="37" t="s">
+      <c r="CG1" s="37" t="s">
         <v>1025</v>
       </c>
-      <c r="CG1" s="37" t="s">
+      <c r="CH1" s="37" t="s">
         <v>1026</v>
       </c>
-      <c r="CH1" s="37" t="s">
+      <c r="CI1" s="37" t="s">
         <v>1027</v>
       </c>
-      <c r="CI1" s="37" t="s">
+      <c r="CJ1" s="37" t="s">
         <v>1028</v>
       </c>
-      <c r="CJ1" s="37" t="s">
+      <c r="CK1" s="38" t="s">
         <v>1029</v>
       </c>
-      <c r="CK1" s="38" t="s">
+      <c r="CL1" s="38" t="s">
         <v>1030</v>
       </c>
-      <c r="CL1" s="38" t="s">
+      <c r="CM1" s="38" t="s">
         <v>1031</v>
       </c>
-      <c r="CM1" s="38" t="s">
+      <c r="CN1" s="38" t="s">
         <v>1032</v>
       </c>
-      <c r="CN1" s="38" t="s">
+      <c r="CO1" s="38" t="s">
         <v>1033</v>
-      </c>
-      <c r="CO1" s="38" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="2" spans="1:93" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
@@ -7992,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="X13" s="2">
         <v>0</v>
@@ -9612,7 +9624,7 @@
     </row>
     <row r="19" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -9837,7 +9849,7 @@
         <v>1</v>
       </c>
       <c r="BX19" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="BY19" s="2">
         <v>0</v>
@@ -9885,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="CN19" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="CO19" s="2">
         <v>0</v>
@@ -11562,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="CK25" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="CL25" s="2">
         <v>4</v>
@@ -14270,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="BD35" s="2">
         <v>1</v>
@@ -15513,7 +15525,7 @@
     </row>
     <row r="40" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -15794,7 +15806,7 @@
     </row>
     <row r="41" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -16075,7 +16087,7 @@
     </row>
     <row r="42" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -16141,34 +16153,34 @@
         <v>0</v>
       </c>
       <c r="W42" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="AG42" s="2">
         <v>0</v>
@@ -16356,7 +16368,7 @@
     </row>
     <row r="43" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -16470,19 +16482,19 @@
         <v>0</v>
       </c>
       <c r="AM43" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AN43" s="2" t="s">
         <v>784</v>
       </c>
       <c r="AO43" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="AP43" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="AP43" s="2" t="s">
+      <c r="AQ43" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="AQ43" s="2" t="s">
-        <v>819</v>
       </c>
       <c r="AR43" s="2">
         <v>0</v>
@@ -16542,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="BL43" s="2">
         <v>0</v>
@@ -16566,7 +16578,7 @@
         <v>0</v>
       </c>
       <c r="BS43" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="BT43" s="2">
         <v>0</v>
@@ -16578,13 +16590,13 @@
         <v>0</v>
       </c>
       <c r="BW43" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="BX43" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="BY43" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="BZ43" s="2" t="s">
         <v>788</v>
@@ -16593,16 +16605,16 @@
         <v>7</v>
       </c>
       <c r="CB43" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="CC43" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="CC43" s="2" t="s">
+      <c r="CD43" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="CE43" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="CD43" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="CE43" s="2" t="s">
-        <v>930</v>
       </c>
       <c r="CF43" s="2">
         <v>1</v>
@@ -16617,10 +16629,10 @@
         <v>781</v>
       </c>
       <c r="CJ43" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="CK43" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="CL43" s="2">
         <v>0</v>
@@ -16629,15 +16641,15 @@
         <v>4</v>
       </c>
       <c r="CN43" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="CO43" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="44" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -16754,7 +16766,7 @@
         <v>782</v>
       </c>
       <c r="AN44" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AO44" s="2">
         <v>3</v>
@@ -16918,7 +16930,7 @@
     </row>
     <row r="45" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -17032,20 +17044,20 @@
         <v>0</v>
       </c>
       <c r="AM45" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="AN45" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="AN45" s="2" t="s">
+      <c r="AO45" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="AO45" s="2" t="s">
+      <c r="AP45" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="AP45" s="2" t="s">
+      <c r="AQ45" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="AQ45" s="2" t="s">
-        <v>828</v>
-      </c>
       <c r="AR45" s="2">
         <v>0</v>
       </c>
@@ -17128,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="BS45" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="BT45" s="2">
         <v>0</v>
@@ -17199,7 +17211,7 @@
     </row>
     <row r="46" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -17361,10 +17373,10 @@
         <v>0</v>
       </c>
       <c r="BC46" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="BD46" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="BD46" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="BE46" s="2">
         <v>0</v>
@@ -17475,12 +17487,12 @@
         <v>0</v>
       </c>
       <c r="CO46" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="47" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -17761,7 +17773,7 @@
     </row>
     <row r="48" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -18042,7 +18054,7 @@
     </row>
     <row r="49" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -18323,7 +18335,7 @@
     </row>
     <row r="50" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -18604,7 +18616,7 @@
     </row>
     <row r="51" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -18885,7 +18897,7 @@
     </row>
     <row r="52" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -19166,7 +19178,7 @@
     </row>
     <row r="53" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -19447,7 +19459,7 @@
     </row>
     <row r="54" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -19728,7 +19740,7 @@
     </row>
     <row r="55" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -20009,7 +20021,7 @@
     </row>
     <row r="56" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A56" s="41" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -20288,7 +20300,7 @@
     </row>
     <row r="57" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A57" s="41" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -20468,13 +20480,13 @@
         <v>781</v>
       </c>
       <c r="BI57" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="BJ57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK57" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="BJ57" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK57" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="BL57" s="2">
         <v>0</v>
@@ -20569,7 +20581,7 @@
     </row>
     <row r="58" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A58" s="41" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B58" s="2">
         <v>0</v>
@@ -20850,169 +20862,169 @@
     </row>
     <row r="59" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A59" s="41" t="s">
+        <v>844</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0</v>
+      </c>
+      <c r="R59" s="2">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0</v>
+      </c>
+      <c r="V59" s="2">
+        <v>0</v>
+      </c>
+      <c r="W59" s="2">
+        <v>0</v>
+      </c>
+      <c r="X59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB59" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="B59" s="2">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0</v>
-      </c>
-      <c r="O59" s="2">
-        <v>0</v>
-      </c>
-      <c r="P59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2">
-        <v>0</v>
-      </c>
-      <c r="S59" s="2">
-        <v>0</v>
-      </c>
-      <c r="T59" s="2">
-        <v>0</v>
-      </c>
-      <c r="U59" s="2">
-        <v>0</v>
-      </c>
-      <c r="V59" s="2">
-        <v>0</v>
-      </c>
-      <c r="W59" s="2">
-        <v>0</v>
-      </c>
-      <c r="X59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB59" s="2" t="s">
+      <c r="BC59" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="BC59" s="2" t="s">
-        <v>847</v>
       </c>
       <c r="BD59" s="2">
         <v>0</v>
@@ -21131,7 +21143,7 @@
     </row>
     <row r="60" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A60" s="41" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
@@ -21353,7 +21365,7 @@
         <v>0</v>
       </c>
       <c r="BW60" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="BX60" s="2">
         <v>0</v>
@@ -21412,7 +21424,7 @@
     </row>
     <row r="61" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
@@ -21693,7 +21705,7 @@
     </row>
     <row r="62" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A62" s="41" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -21858,7 +21870,7 @@
         <v>9</v>
       </c>
       <c r="BD62" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="BE62" s="2">
         <v>0</v>
@@ -21974,7 +21986,7 @@
     </row>
     <row r="63" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -22238,13 +22250,13 @@
         <v>0</v>
       </c>
       <c r="CK63" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="CL63" s="2">
         <v>3</v>
       </c>
       <c r="CM63" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="CN63" s="2">
         <v>1</v>
@@ -22255,7 +22267,7 @@
     </row>
     <row r="64" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -22536,7 +22548,7 @@
     </row>
     <row r="65" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B65" s="2">
         <v>0</v>
@@ -22761,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="BX65" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="BY65" s="2">
         <v>0</v>
@@ -22817,7 +22829,7 @@
     </row>
     <row r="66" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A66" s="41" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
@@ -23098,7 +23110,7 @@
     </row>
     <row r="67" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
@@ -23379,7 +23391,7 @@
     </row>
     <row r="68" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -23660,7 +23672,7 @@
     </row>
     <row r="69" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -23941,7 +23953,7 @@
     </row>
     <row r="70" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -24222,7 +24234,7 @@
     </row>
     <row r="71" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -24503,7 +24515,7 @@
     </row>
     <row r="72" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
@@ -27290,8 +27302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -27969,8 +27981,8 @@
       <c r="J8" s="9">
         <v>2</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>801</v>
+      <c r="K8" s="42" t="s">
+        <v>1035</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>364</v>
@@ -28318,8 +28330,8 @@
       <c r="K12" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="L12" s="9">
-        <v>48.590147000000002</v>
+      <c r="L12" s="9" t="s">
+        <v>1034</v>
       </c>
       <c r="M12" s="9">
         <v>332</v>
@@ -39989,7 +40001,7 @@
         <v>699</v>
       </c>
       <c r="W145" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="X145" s="10" t="s">
         <v>9</v>
@@ -40075,7 +40087,7 @@
         <v>699</v>
       </c>
       <c r="W146" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="X146" s="10" t="s">
         <v>9</v>
@@ -40161,7 +40173,7 @@
         <v>698</v>
       </c>
       <c r="W147" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="X147" s="10" t="s">
         <v>9</v>
@@ -40247,7 +40259,7 @@
         <v>698</v>
       </c>
       <c r="W148" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="X148" s="10" t="s">
         <v>9</v>
@@ -40333,7 +40345,7 @@
         <v>698</v>
       </c>
       <c r="W149" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="X149" s="10" t="s">
         <v>9</v>
@@ -40419,7 +40431,7 @@
         <v>8</v>
       </c>
       <c r="W150" s="15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="X150" s="7" t="s">
         <v>9</v>
@@ -40701,10 +40713,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>491</v>
@@ -40713,7 +40725,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>762</v>
@@ -40721,16 +40733,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" t="s">
         <v>922</v>
-      </c>
-      <c r="D6" t="s">
-        <v>923</v>
       </c>
       <c r="E6">
         <v>1962</v>
@@ -40739,7 +40751,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -40822,13 +40834,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="D9" t="s">
         <v>637</v>
@@ -40843,7 +40855,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>775</v>
@@ -40857,13 +40869,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D10" t="s">
         <v>637</v>
@@ -40878,7 +40890,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J10" s="21" t="s">
         <v>775</v>
@@ -40950,7 +40962,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>775</v>
@@ -41000,13 +41012,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D14" t="s">
         <v>634</v>
@@ -41021,7 +41033,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J14" s="21" t="s">
         <v>775</v>
@@ -41035,16 +41047,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>544</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D15" t="s">
         <v>953</v>
-      </c>
-      <c r="D15" t="s">
-        <v>954</v>
       </c>
       <c r="E15">
         <v>1952</v>
@@ -41070,7 +41082,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>544</v>
@@ -41198,16 +41210,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>546</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E20">
         <v>1897</v>
@@ -41269,13 +41281,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D22" t="s">
         <v>652</v>
@@ -41304,10 +41316,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>491</v>
@@ -41324,16 +41336,16 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D24" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E24">
         <v>1971</v>
@@ -41345,7 +41357,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J24" s="21" t="s">
         <v>774</v>
@@ -41359,13 +41371,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -41394,16 +41406,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D26" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E26">
         <v>1910</v>
@@ -41415,7 +41427,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>775</v>
@@ -41429,13 +41441,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -41450,7 +41462,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J27" s="21" t="s">
         <v>772</v>
@@ -41536,16 +41548,16 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>951</v>
-      </c>
       <c r="D30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E30">
         <v>1898</v>
@@ -41557,7 +41569,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>774</v>
@@ -41571,16 +41583,16 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" t="s">
         <v>948</v>
-      </c>
-      <c r="D31" t="s">
-        <v>949</v>
       </c>
       <c r="E31">
         <v>1882</v>
@@ -41642,7 +41654,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B33" t="s">
         <v>516</v>
@@ -41688,13 +41700,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D35" t="s">
         <v>637</v>
@@ -41795,13 +41807,13 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
@@ -41902,13 +41914,13 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D41" t="s">
         <v>2</v>
@@ -42045,16 +42057,16 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" t="s">
         <v>926</v>
-      </c>
-      <c r="D45" t="s">
-        <v>927</v>
       </c>
       <c r="E45">
         <v>2014</v>
@@ -42116,13 +42128,13 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D47" t="s">
         <v>637</v>
@@ -42151,13 +42163,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>956</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -42186,16 +42198,16 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>607</v>
       </c>
       <c r="D49" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E49">
         <v>1964</v>
@@ -42260,16 +42272,16 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D51" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E51">
         <v>1942</v>
@@ -42281,7 +42293,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J51" s="21" t="s">
         <v>772</v>
@@ -42295,16 +42307,16 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D52" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E52">
         <v>1942</v>
@@ -42316,7 +42328,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J52" s="21" t="s">
         <v>772</v>
@@ -42366,16 +42378,16 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D54" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E54">
         <v>1958</v>
@@ -42401,16 +42413,16 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D55" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E55">
         <v>1941</v>
@@ -42436,13 +42448,13 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D56" t="s">
         <v>625</v>
@@ -42507,16 +42519,16 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D58" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E58">
         <v>1910</v>
@@ -42528,7 +42540,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J58" s="21" t="s">
         <v>773</v>
@@ -42542,13 +42554,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
@@ -42563,7 +42575,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J59" s="21" t="s">
         <v>773</v>
@@ -42613,16 +42625,16 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D61" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E61">
         <v>1929</v>
@@ -42634,7 +42646,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J61" s="21" t="s">
         <v>772</v>
@@ -42720,16 +42732,16 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" t="s">
         <v>945</v>
-      </c>
-      <c r="D64" t="s">
-        <v>946</v>
       </c>
       <c r="E64">
         <v>1804</v>
@@ -42902,13 +42914,13 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D69" t="s">
         <v>2</v>
@@ -44301,21 +44313,21 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K113" s="3"/>
       <c r="L113" s="18"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K114" s="3"/>
       <c r="L114" s="18"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K115" s="3"/>
       <c r="L115" s="18"/>
